--- a/students.xlsx
+++ b/students.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gne573-my.sharepoint.com/personal/kyu9225_yangsan-g-m_gne_go_kr/Documents/바탕 화면/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\반편성\최종\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{C60D379D-A0DA-49B1-9309-BF3808E99F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{784A2720-E478-451D-BA7A-B0160148C9AE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F22605-DAE4-4D80-829A-049594372DF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E82CF06-4291-4BB2-932B-E63723969F27}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="최종명단" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="406">
   <si>
     <t>생년월일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,17 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3반</t>
-  </si>
-  <si>
-    <t>정우1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정우2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1반</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,88 +47,1218 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정우3</t>
-  </si>
-  <si>
-    <t>정우4</t>
+    <t>임지아</t>
+  </si>
+  <si>
+    <t>손예인</t>
+  </si>
+  <si>
+    <t>김도연</t>
+  </si>
+  <si>
+    <t>박지혜</t>
+  </si>
+  <si>
+    <t>강민지</t>
+  </si>
+  <si>
+    <t>허예림</t>
+  </si>
+  <si>
+    <t>김사랑</t>
+  </si>
+  <si>
+    <t>김나린</t>
+  </si>
+  <si>
+    <t>이시아</t>
+  </si>
+  <si>
+    <t>제갈효은</t>
+  </si>
+  <si>
+    <t>박다미</t>
+  </si>
+  <si>
+    <t>박예솔</t>
+  </si>
+  <si>
+    <t>유서진</t>
+  </si>
+  <si>
+    <t>현지우</t>
+  </si>
+  <si>
+    <t>김세인</t>
+  </si>
+  <si>
+    <t>이규은</t>
+  </si>
+  <si>
+    <t>하서연</t>
+  </si>
+  <si>
+    <t>이소민</t>
+  </si>
+  <si>
+    <t>이가현</t>
+  </si>
+  <si>
+    <t>손소윤</t>
+  </si>
+  <si>
+    <t>박민하</t>
+  </si>
+  <si>
+    <t>박수빈</t>
+  </si>
+  <si>
+    <t>김가원</t>
+  </si>
+  <si>
+    <t>이서영</t>
+  </si>
+  <si>
+    <t>김주은</t>
+  </si>
+  <si>
+    <t>이유은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김소라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130509</t>
+  </si>
+  <si>
+    <t>130621</t>
+  </si>
+  <si>
+    <t>130917</t>
+  </si>
+  <si>
+    <t>130817</t>
+  </si>
+  <si>
+    <t>130803</t>
+  </si>
+  <si>
+    <t>130529</t>
+  </si>
+  <si>
+    <t>130721</t>
+  </si>
+  <si>
+    <t>130905</t>
+  </si>
+  <si>
+    <t>130830</t>
+  </si>
+  <si>
+    <t>130811</t>
+  </si>
+  <si>
+    <t>131215</t>
+  </si>
+  <si>
+    <t>130107</t>
+  </si>
+  <si>
+    <t>130421</t>
+  </si>
+  <si>
+    <t>130416</t>
+  </si>
+  <si>
+    <t>131015</t>
+  </si>
+  <si>
+    <t>130624</t>
+  </si>
+  <si>
+    <t>130210</t>
+  </si>
+  <si>
+    <t>130124</t>
+  </si>
+  <si>
+    <t>131106</t>
+  </si>
+  <si>
+    <t>130428</t>
+  </si>
+  <si>
+    <t>130929</t>
+  </si>
+  <si>
+    <t>130728</t>
+  </si>
+  <si>
+    <t>131027</t>
+  </si>
+  <si>
+    <t>130131</t>
+  </si>
+  <si>
+    <t>130508</t>
+  </si>
+  <si>
+    <t>130103</t>
+  </si>
+  <si>
+    <t>130924</t>
+  </si>
+  <si>
+    <t>강보미</t>
+  </si>
+  <si>
+    <t>서혜림</t>
+  </si>
+  <si>
+    <t>장예서</t>
+  </si>
+  <si>
+    <t>서하윤</t>
+  </si>
+  <si>
+    <t>장민서</t>
+  </si>
+  <si>
+    <t>금채원</t>
+  </si>
+  <si>
+    <t>이지우</t>
+  </si>
+  <si>
+    <t>정희윤</t>
+  </si>
+  <si>
+    <t>변서윤</t>
+  </si>
+  <si>
+    <t>이서우</t>
+  </si>
+  <si>
+    <t>정은재</t>
+  </si>
+  <si>
+    <t>유가윤</t>
+  </si>
+  <si>
+    <t>박지민</t>
+  </si>
+  <si>
+    <t>김민지</t>
+  </si>
+  <si>
+    <t>민세현</t>
+  </si>
+  <si>
+    <t>이채유</t>
+  </si>
+  <si>
+    <t>강예원</t>
+  </si>
+  <si>
+    <t>이예리</t>
+  </si>
+  <si>
+    <t>이윤진</t>
+  </si>
+  <si>
+    <t>김도희</t>
+  </si>
+  <si>
+    <t>진서현</t>
+  </si>
+  <si>
+    <t>김서연</t>
+  </si>
+  <si>
+    <t>이수연</t>
+  </si>
+  <si>
+    <t>황지아</t>
+  </si>
+  <si>
+    <t>130521</t>
+  </si>
+  <si>
+    <t>130215</t>
+  </si>
+  <si>
+    <t>131228</t>
+  </si>
+  <si>
+    <t>131121</t>
+  </si>
+  <si>
+    <t>130809</t>
+  </si>
+  <si>
+    <t>131009</t>
+  </si>
+  <si>
+    <t>130419</t>
+  </si>
+  <si>
+    <t>130603</t>
+  </si>
+  <si>
+    <t>131126</t>
+  </si>
+  <si>
+    <t>130309</t>
+  </si>
+  <si>
+    <t>130527</t>
+  </si>
+  <si>
+    <t>130120</t>
+  </si>
+  <si>
+    <t>130213</t>
+  </si>
+  <si>
+    <t>131018</t>
+  </si>
+  <si>
+    <t>130816</t>
+  </si>
+  <si>
+    <t>131203</t>
+  </si>
+  <si>
+    <t>130502</t>
+  </si>
+  <si>
+    <t>131105</t>
+  </si>
+  <si>
+    <t>130913</t>
+  </si>
+  <si>
+    <t>130225</t>
+  </si>
+  <si>
+    <t>130825</t>
+  </si>
+  <si>
+    <t>130826</t>
+  </si>
+  <si>
+    <t>POPOVA ALEKSANDRA</t>
+  </si>
+  <si>
+    <t>130623</t>
+  </si>
+  <si>
+    <t>박라은</t>
+  </si>
+  <si>
+    <t>우나온</t>
+  </si>
+  <si>
+    <t>심지아</t>
+  </si>
+  <si>
+    <t>박서연</t>
+  </si>
+  <si>
+    <t>신아윤</t>
+  </si>
+  <si>
+    <t>장윤</t>
+  </si>
+  <si>
+    <t>우지혜</t>
+  </si>
+  <si>
+    <t>허주은</t>
+  </si>
+  <si>
+    <t>이태금</t>
+  </si>
+  <si>
+    <t>강나린</t>
+  </si>
+  <si>
+    <t>김근아</t>
+  </si>
+  <si>
+    <t>윤지민</t>
+  </si>
+  <si>
+    <t>성유정</t>
+  </si>
+  <si>
+    <t>박다은</t>
+  </si>
+  <si>
+    <t>송승미</t>
+  </si>
+  <si>
+    <t>천우림</t>
+  </si>
+  <si>
+    <t>이영원</t>
+  </si>
+  <si>
+    <t>김연아</t>
+  </si>
+  <si>
+    <t>전효린</t>
+  </si>
+  <si>
+    <t>김브리엔</t>
+  </si>
+  <si>
+    <t>손현지</t>
+  </si>
+  <si>
+    <t>송지우</t>
+  </si>
+  <si>
+    <t>오서윤</t>
+  </si>
+  <si>
+    <t>김태린</t>
+  </si>
+  <si>
+    <t>심하윤</t>
+  </si>
+  <si>
+    <t>이채안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130916</t>
+  </si>
+  <si>
+    <t>130807</t>
+  </si>
+  <si>
+    <t>130209</t>
+  </si>
+  <si>
+    <t>130731</t>
+  </si>
+  <si>
+    <t>130429</t>
+  </si>
+  <si>
+    <t>130712</t>
+  </si>
+  <si>
+    <t>131202</t>
+  </si>
+  <si>
+    <t>130302</t>
+  </si>
+  <si>
+    <t>131123</t>
+  </si>
+  <si>
+    <t>130827</t>
+  </si>
+  <si>
+    <t>130720</t>
+  </si>
+  <si>
+    <t>131112</t>
+  </si>
+  <si>
+    <t>130405</t>
+  </si>
+  <si>
+    <t>130304</t>
+  </si>
+  <si>
+    <t>130110</t>
+  </si>
+  <si>
+    <t>131026</t>
+  </si>
+  <si>
+    <t>130329</t>
+  </si>
+  <si>
+    <t>130925</t>
+  </si>
+  <si>
+    <t>130617</t>
+  </si>
+  <si>
+    <t>130402</t>
+  </si>
+  <si>
+    <t>130415</t>
+  </si>
+  <si>
+    <t>130708</t>
+  </si>
+  <si>
+    <t>정하윤</t>
+  </si>
+  <si>
+    <t>박보민</t>
+  </si>
+  <si>
+    <t>박나현</t>
+  </si>
+  <si>
+    <t>여준희</t>
+  </si>
+  <si>
+    <t>주혜리</t>
+  </si>
+  <si>
+    <t>박근희</t>
+  </si>
+  <si>
+    <t>신다해</t>
+  </si>
+  <si>
+    <t>박수아</t>
+  </si>
+  <si>
+    <t>안채원</t>
+  </si>
+  <si>
+    <t>조한비</t>
+  </si>
+  <si>
+    <t>이수현</t>
+  </si>
+  <si>
+    <t>박수민</t>
+  </si>
+  <si>
+    <t>정세인</t>
+  </si>
+  <si>
+    <t>김해솔</t>
+  </si>
+  <si>
+    <t>김나연</t>
+  </si>
+  <si>
+    <t>이남경</t>
+  </si>
+  <si>
+    <t>이사랑</t>
+  </si>
+  <si>
+    <t>이지아</t>
+  </si>
+  <si>
+    <t>민효주</t>
+  </si>
+  <si>
+    <t>서수빈</t>
+  </si>
+  <si>
+    <t>전유나</t>
+  </si>
+  <si>
+    <t>박시현</t>
+  </si>
+  <si>
+    <t>길소은</t>
+  </si>
+  <si>
+    <t>박규리</t>
+  </si>
+  <si>
+    <t>박소영</t>
+  </si>
+  <si>
+    <t>131020</t>
+  </si>
+  <si>
+    <t>130316</t>
+  </si>
+  <si>
+    <t>130814</t>
+  </si>
+  <si>
+    <t>130306</t>
+  </si>
+  <si>
+    <t>130706</t>
+  </si>
+  <si>
+    <t>131220</t>
+  </si>
+  <si>
+    <t>130319</t>
+  </si>
+  <si>
+    <t>130212</t>
+  </si>
+  <si>
+    <t>130618</t>
+  </si>
+  <si>
+    <t>130409</t>
+  </si>
+  <si>
+    <t>130915</t>
+  </si>
+  <si>
+    <t>130122</t>
+  </si>
+  <si>
+    <t>130716</t>
+  </si>
+  <si>
+    <t>130114</t>
+  </si>
+  <si>
+    <t>130516</t>
+  </si>
+  <si>
+    <t>130818</t>
+  </si>
+  <si>
+    <t>김예담</t>
+  </si>
+  <si>
+    <t>문수영</t>
+  </si>
+  <si>
+    <t>서노을</t>
+  </si>
+  <si>
+    <t>천유림</t>
+  </si>
+  <si>
+    <t>성예서</t>
+  </si>
+  <si>
+    <t>김시은</t>
+  </si>
+  <si>
+    <t>김경빈</t>
+  </si>
+  <si>
+    <t>서다은</t>
+  </si>
+  <si>
+    <t>이은채</t>
+  </si>
+  <si>
+    <t>정유나</t>
+  </si>
+  <si>
+    <t>김효빈</t>
+  </si>
+  <si>
+    <t>최다빈</t>
+  </si>
+  <si>
+    <t>강윤희</t>
+  </si>
+  <si>
+    <t>조수민</t>
+  </si>
+  <si>
+    <t>손예은</t>
+  </si>
+  <si>
+    <t>엄지안</t>
+  </si>
+  <si>
+    <t>곽수하</t>
+  </si>
+  <si>
+    <t>조효린</t>
+  </si>
+  <si>
+    <t>김예나</t>
+  </si>
+  <si>
+    <t>최서은</t>
+  </si>
+  <si>
+    <t>손은체</t>
+  </si>
+  <si>
+    <t>배시윤</t>
+  </si>
+  <si>
+    <t>배지원</t>
+  </si>
+  <si>
+    <t>김서정</t>
+  </si>
+  <si>
+    <t>최희량</t>
+  </si>
+  <si>
+    <t>130219</t>
+  </si>
+  <si>
+    <t>130217</t>
+  </si>
+  <si>
+    <t>130903</t>
+  </si>
+  <si>
+    <t>130430</t>
+  </si>
+  <si>
+    <t>131004</t>
+  </si>
+  <si>
+    <t>130201</t>
+  </si>
+  <si>
+    <t>130622</t>
+  </si>
+  <si>
+    <t>131002</t>
+  </si>
+  <si>
+    <t>130927</t>
+  </si>
+  <si>
+    <t>130510</t>
+  </si>
+  <si>
+    <t>131011</t>
+  </si>
+  <si>
+    <t>130704</t>
+  </si>
+  <si>
+    <t>130909</t>
+  </si>
+  <si>
+    <t>130104</t>
+  </si>
+  <si>
+    <t>130726</t>
+  </si>
+  <si>
+    <t>130327</t>
+  </si>
+  <si>
+    <t>130102</t>
+  </si>
+  <si>
+    <t>131005</t>
+  </si>
+  <si>
+    <t>130920</t>
+  </si>
+  <si>
+    <t>130906</t>
+  </si>
+  <si>
+    <t>유예주</t>
+  </si>
+  <si>
+    <t>진아연</t>
+  </si>
+  <si>
+    <t>주연우</t>
+  </si>
+  <si>
+    <t>황서원</t>
+  </si>
+  <si>
+    <t>엄수민</t>
+  </si>
+  <si>
+    <t>박서하</t>
+  </si>
+  <si>
+    <t>이주미</t>
+  </si>
+  <si>
+    <t>김혜윤</t>
+  </si>
+  <si>
+    <t>이다온</t>
+  </si>
+  <si>
+    <t>이채련</t>
+  </si>
+  <si>
+    <t>안예은</t>
+  </si>
+  <si>
+    <t>최명주</t>
+  </si>
+  <si>
+    <t>윤아영</t>
+  </si>
+  <si>
+    <t>민수빈</t>
+  </si>
+  <si>
+    <t>김나윤</t>
+  </si>
+  <si>
+    <t>박다빈</t>
+  </si>
+  <si>
+    <t>정지원</t>
+  </si>
+  <si>
+    <t>정라겸</t>
+  </si>
+  <si>
+    <t>김한별</t>
+  </si>
+  <si>
+    <t>김슬아</t>
+  </si>
+  <si>
+    <t>이나은</t>
+  </si>
+  <si>
+    <t>하채민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130111</t>
+  </si>
+  <si>
+    <t>130412</t>
+  </si>
+  <si>
+    <t>131206</t>
+  </si>
+  <si>
+    <t>131218</t>
+  </si>
+  <si>
+    <t>130930</t>
+  </si>
+  <si>
+    <t>131128</t>
+  </si>
+  <si>
+    <t>130126</t>
+  </si>
+  <si>
+    <t>130910</t>
+  </si>
+  <si>
+    <t>130204</t>
+  </si>
+  <si>
+    <t>131114</t>
+  </si>
+  <si>
+    <t>130904</t>
+  </si>
+  <si>
+    <t>130109</t>
+  </si>
+  <si>
+    <t>130724</t>
+  </si>
+  <si>
+    <t>130220</t>
+  </si>
+  <si>
+    <t>131012</t>
+  </si>
+  <si>
+    <t>130722</t>
+  </si>
+  <si>
+    <t>130504</t>
+  </si>
+  <si>
+    <t>130718</t>
+  </si>
+  <si>
+    <t>박윤서</t>
+  </si>
+  <si>
+    <t>안서은</t>
+  </si>
+  <si>
+    <t>오다인</t>
+  </si>
+  <si>
+    <t>이현채</t>
+  </si>
+  <si>
+    <t>서다빈</t>
+  </si>
+  <si>
+    <t>나한나</t>
+  </si>
+  <si>
+    <t>김채현</t>
+  </si>
+  <si>
+    <t>송나윤</t>
+  </si>
+  <si>
+    <t>오나경</t>
+  </si>
+  <si>
+    <t>박서원</t>
+  </si>
+  <si>
+    <t>김소은</t>
+  </si>
+  <si>
+    <t>김하윤</t>
+  </si>
+  <si>
+    <t>정사랑</t>
+  </si>
+  <si>
+    <t>이다현</t>
+  </si>
+  <si>
+    <t>김선유</t>
+  </si>
+  <si>
+    <t>박소현</t>
+  </si>
+  <si>
+    <t>김지아</t>
+  </si>
+  <si>
+    <t>박정은</t>
+  </si>
+  <si>
+    <t>이채민</t>
+  </si>
+  <si>
+    <t>손혜인</t>
+  </si>
+  <si>
+    <t>이지은</t>
+  </si>
+  <si>
+    <t>HABIBAUMME</t>
+  </si>
+  <si>
+    <t>이예지</t>
+  </si>
+  <si>
+    <t>최은설</t>
+  </si>
+  <si>
+    <t>임예나</t>
+  </si>
+  <si>
+    <t>130313</t>
+  </si>
+  <si>
+    <t>130723</t>
+  </si>
+  <si>
+    <t>131025</t>
+  </si>
+  <si>
+    <t>131022</t>
+  </si>
+  <si>
+    <t>130824</t>
+  </si>
+  <si>
+    <t>131217</t>
+  </si>
+  <si>
+    <t>130423</t>
+  </si>
+  <si>
+    <t>130822</t>
+  </si>
+  <si>
+    <t>130513</t>
+  </si>
+  <si>
+    <t>130506</t>
+  </si>
+  <si>
+    <t>130221</t>
+  </si>
+  <si>
+    <t>130710</t>
+  </si>
+  <si>
+    <t>130317</t>
+  </si>
+  <si>
+    <t>130806</t>
+  </si>
+  <si>
+    <t>131028</t>
+  </si>
+  <si>
+    <t>130608</t>
+  </si>
+  <si>
+    <t>130828</t>
+  </si>
+  <si>
+    <t>131113</t>
+  </si>
+  <si>
+    <t>하다솔</t>
+  </si>
+  <si>
+    <t>정소윤</t>
+  </si>
+  <si>
+    <t>한유빈</t>
+  </si>
+  <si>
+    <t>서린</t>
+  </si>
+  <si>
+    <t>이채은</t>
+  </si>
+  <si>
+    <t>임다인</t>
+  </si>
+  <si>
+    <t>윤혜인</t>
+  </si>
+  <si>
+    <t>최예원</t>
+  </si>
+  <si>
+    <t>백민서</t>
+  </si>
+  <si>
+    <t>조윤아</t>
+  </si>
+  <si>
+    <t>조아요</t>
+  </si>
+  <si>
+    <t>최은서</t>
+  </si>
+  <si>
+    <t>윤정인</t>
+  </si>
+  <si>
+    <t>오혜린</t>
+  </si>
+  <si>
+    <t>문소율</t>
+  </si>
+  <si>
+    <t>신하림</t>
+  </si>
+  <si>
+    <t>강지우</t>
+  </si>
+  <si>
+    <t>이주하</t>
+  </si>
+  <si>
+    <t>김다진</t>
+  </si>
+  <si>
+    <t>박세희</t>
+  </si>
+  <si>
+    <t>박신아</t>
+  </si>
+  <si>
+    <t>박혜윤</t>
+  </si>
+  <si>
+    <t>장은우</t>
+  </si>
+  <si>
+    <t>최세은</t>
+  </si>
+  <si>
+    <t>정윤서</t>
+  </si>
+  <si>
+    <t>8반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130519</t>
+  </si>
+  <si>
+    <t>130610</t>
+  </si>
+  <si>
+    <t>130605</t>
+  </si>
+  <si>
+    <t>130928</t>
+  </si>
+  <si>
+    <t>130616</t>
+  </si>
+  <si>
+    <t>131023</t>
+  </si>
+  <si>
+    <t>130129</t>
+  </si>
+  <si>
+    <t>130523</t>
+  </si>
+  <si>
+    <t>130912</t>
+  </si>
+  <si>
+    <t>130801</t>
+  </si>
+  <si>
+    <t>131001</t>
+  </si>
+  <si>
+    <t>130918</t>
+  </si>
+  <si>
+    <t>9반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정주아</t>
+  </si>
+  <si>
+    <t>허규나</t>
+  </si>
+  <si>
+    <t>최다인</t>
+  </si>
+  <si>
+    <t>우선린</t>
+  </si>
+  <si>
+    <t>이하림</t>
+  </si>
+  <si>
+    <t>이수지</t>
+  </si>
+  <si>
+    <t>김태경</t>
+  </si>
+  <si>
+    <t>이은서</t>
+  </si>
+  <si>
+    <t>전유정</t>
+  </si>
+  <si>
+    <t>정인희</t>
+  </si>
+  <si>
+    <t>윤예성</t>
+  </si>
+  <si>
+    <t>박채은</t>
+  </si>
+  <si>
+    <t>구민지</t>
+  </si>
+  <si>
+    <t>이가람</t>
+  </si>
+  <si>
+    <t>이루사</t>
+  </si>
+  <si>
+    <t>조수빈</t>
+  </si>
+  <si>
+    <t>김예향</t>
+  </si>
+  <si>
+    <t>우주원</t>
+  </si>
+  <si>
+    <t>강윤슬</t>
+  </si>
+  <si>
+    <t>최지율</t>
+  </si>
+  <si>
+    <t>양샤론</t>
+  </si>
+  <si>
+    <t>권수민</t>
+  </si>
+  <si>
+    <t>윤가은</t>
+  </si>
+  <si>
+    <t>김서주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131016</t>
+  </si>
+  <si>
+    <t>131111</t>
+  </si>
+  <si>
+    <t>131212</t>
+  </si>
+  <si>
+    <t>130211</t>
+  </si>
+  <si>
+    <t>130503</t>
+  </si>
+  <si>
+    <t>130604</t>
+  </si>
+  <si>
+    <t>130518</t>
+  </si>
+  <si>
+    <t>130625</t>
+  </si>
+  <si>
+    <t>130403</t>
+  </si>
+  <si>
+    <t>3반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신유나</t>
   </si>
   <si>
     <t>4반</t>
-  </si>
-  <si>
-    <t>정우5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차리안</t>
   </si>
   <si>
     <t>5반</t>
-  </si>
-  <si>
-    <t>정우6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6반</t>
-  </si>
-  <si>
-    <t>정우7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송수아</t>
+  </si>
+  <si>
+    <t>130812</t>
+  </si>
+  <si>
+    <t>임혜경</t>
   </si>
   <si>
     <t>7반</t>
-  </si>
-  <si>
-    <t>정우8</t>
-  </si>
-  <si>
-    <t>8반</t>
-  </si>
-  <si>
-    <t>정우9</t>
-  </si>
-  <si>
-    <t>9반</t>
-  </si>
-  <si>
-    <t>정우10</t>
-  </si>
-  <si>
-    <t>10반</t>
-  </si>
-  <si>
-    <t>080701</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>080702</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>080703</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>080704</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>080705</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>080706</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>080707</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>080708</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>080709</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>080710</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,7 +1266,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,21 +1282,54 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="HY신명조"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -197,12 +1338,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,138 +1696,2662 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3AD0B5-FD26-403F-8B47-1D212622963D}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48541750-A9E2-46B4-830D-4D2F0181A0E7}">
+  <dimension ref="A1:C240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="14.296875" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A78" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A80" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A89" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A90" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A91" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A92" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A93" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A94" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A95" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A96" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A97" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A98" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A99" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A100" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A101" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A102" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A103" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A104" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A105" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A106" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A107" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A108" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A109" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A110" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A111" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A112" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A113" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A114" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A115" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A116" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A117" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A118" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A119" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A120" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A121" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A122" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A123" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A124" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A125" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A126" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A127" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A128" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A129" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A130" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A131" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A132" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A133" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A134" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A135" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A136" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A137" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A138" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A139" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A140" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A141" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A142" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A143" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A144" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A145" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A146" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A147" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A148" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A149" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A150" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A151" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A152" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A153" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A154" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A155" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A156" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A157" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A158" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A159" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A160" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A161" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A162" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A163" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A164" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A165" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A166" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A167" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A168" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A169" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A170" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A171" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A172" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A173" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A174" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A175" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A176" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A177" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A178" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A179" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A180" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A181" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A182" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A183" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A184" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A185" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A186" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A187" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A188" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A189" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A190" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A191" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A192" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A193" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A194" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A195" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A196" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A197" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A198" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A199" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A200" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A201" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B201" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
+      <c r="C201" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A202" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A203" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A204" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A205" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A206" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A207" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A208" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A209" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A210" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A211" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A212" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A213" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A214" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A215" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A216" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A217" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A218" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A219" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A220" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A221" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A222" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A223" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A224" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A225" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A226" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A227" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A228" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A229" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A230" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A231" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A232" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A233" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A234" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A235" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A236" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A237" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A238" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A239" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A240" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>